--- a/public/file/perusahaan.xlsx
+++ b/public/file/perusahaan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runewalker\Documents\E-Budget Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\luffy\project\e-budget\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42974C35-4FF4-4749-8753-D164EDA79526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21507A-4BE4-4EA0-A1AE-DA679FACADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEA2E2A4-2A1A-42EB-AB86-BA65A8BEB1B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{EEA2E2A4-2A1A-42EB-AB86-BA65A8BEB1B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Kode Company</t>
   </si>
@@ -45,18 +37,6 @@
   </si>
   <si>
     <t>Kalla Group</t>
-  </si>
-  <si>
-    <t>PT. Haka Sarana Investama Holding</t>
-  </si>
-  <si>
-    <t>PT. Haka Sarana Investama Subholding</t>
-  </si>
-  <si>
-    <t>PT. Haka Sarana Investama</t>
-  </si>
-  <si>
-    <t>PT. Kalla Electrikal System</t>
   </si>
 </sst>
 </file>
@@ -418,18 +398,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65270852-C609-42C3-B14F-B2CBAF9BCD68}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,56 +422,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>200</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>210</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>211</v>
-      </c>
-      <c r="B5">
-        <v>210</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>212</v>
-      </c>
-      <c r="B6">
-        <v>210</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
